--- a/src/main/resources/template/excel/export/memberOrderAll.xlsx
+++ b/src/main/resources/template/excel/export/memberOrderAll.xlsx
@@ -176,7 +176,32 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>createTime</t>
+      <t>saleType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">} </t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>${obj.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>branchName</t>
     </r>
     <r>
       <rPr>
@@ -201,32 +226,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>saleType</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">} </t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>${obj.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>branchName</t>
+      <t>amount</t>
     </r>
     <r>
       <rPr>
@@ -241,17 +241,7 @@
   </si>
   <si>
     <r>
-      <t>${obj.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>amount</t>
+      <t>${obj.expCreateTime</t>
     </r>
     <r>
       <rPr>
@@ -379,7 +369,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -406,6 +396,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -715,7 +711,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E2" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -724,7 +720,7 @@
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
     <col min="4" max="4" width="9.5" customWidth="1"/>
-    <col min="5" max="5" width="14.625" customWidth="1"/>
+    <col min="5" max="5" width="14.625" style="11" customWidth="1"/>
     <col min="6" max="6" width="12.875" customWidth="1"/>
     <col min="7" max="7" width="13.875" style="7" customWidth="1"/>
     <col min="11" max="11" width="18.25" style="1" customWidth="1"/>
@@ -775,16 +771,16 @@
         <v>10</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/template/excel/export/memberOrderAll.xlsx
+++ b/src/main/resources/template/excel/export/memberOrderAll.xlsx
@@ -34,7 +34,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">jx:area(lastCell="G3")
+          <t xml:space="preserve">jx:area(lastCell="F3")
 </t>
         </r>
       </text>
@@ -47,7 +47,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="reportList" var="obj" lastCell="G3")</t>
+          <t>jx:each(items="reportList" var="obj" lastCell="F3")</t>
         </r>
       </text>
     </comment>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>会员手机号</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -82,10 +82,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>会员名称</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>会员消费汇总</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -101,7 +97,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>loginName</t>
+      <t>orderNo</t>
     </r>
     <r>
       <rPr>
@@ -126,7 +122,32 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>phone</t>
+      <t>saleType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">} </t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>${obj.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>branchName</t>
     </r>
     <r>
       <rPr>
@@ -151,7 +172,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>orderNo</t>
+      <t>amount</t>
     </r>
     <r>
       <rPr>
@@ -166,42 +187,7 @@
   </si>
   <si>
     <r>
-      <t>${obj.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>saleType</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">} </t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>${obj.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>branchName</t>
+      <t>${obj.expCreateTime</t>
     </r>
     <r>
       <rPr>
@@ -216,32 +202,7 @@
   </si>
   <si>
     <r>
-      <t>${obj.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>amount</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>${obj.expCreateTime</t>
+      <t>${obj.phone</t>
     </r>
     <r>
       <rPr>
@@ -392,16 +353,16 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -708,84 +669,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E1:E1048576"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.875" customWidth="1"/>
-    <col min="2" max="2" width="15" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="9.5" customWidth="1"/>
-    <col min="5" max="5" width="14.625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="12.875" customWidth="1"/>
-    <col min="7" max="7" width="13.875" style="7" customWidth="1"/>
-    <col min="11" max="11" width="18.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="9.5" customWidth="1"/>
+    <col min="4" max="4" width="14.625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="13.875" style="7" customWidth="1"/>
+    <col min="10" max="10" width="18.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="D3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/template/excel/export/memberOrderAll.xlsx
+++ b/src/main/resources/template/excel/export/memberOrderAll.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\okdeer\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">jx:area(lastCell="F3")
+          <t xml:space="preserve">jx:area(lastCell="F4")
 </t>
         </r>
       </text>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>会员手机号</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -213,6 +213,13 @@
       </rPr>
       <t>}</t>
     </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计：</t>
+  </si>
+  <si>
+    <t>$[SUM(F3)]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -220,9 +227,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="0.0000_);\(0.0000\)"/>
+    <numFmt numFmtId="178" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -330,7 +338,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -363,6 +371,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -371,6 +382,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -390,7 +469,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -669,10 +748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -734,6 +813,18 @@
       </c>
       <c r="F3" s="6" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/template/excel/export/memberOrderAll.xlsx
+++ b/src/main/resources/template/excel/export/memberOrderAll.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,6 +32,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">jx:area(lastCell="F3")
@@ -45,6 +46,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>jx:each(items="reportList" var="obj" lastCell="F3")</t>
@@ -104,6 +106,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -129,6 +132,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">} </t>
@@ -154,6 +158,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -179,6 +184,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -194,6 +200,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -209,6 +216,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -237,6 +245,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -244,22 +253,26 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -672,7 +685,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/src/main/resources/template/excel/export/memberOrderAll.xlsx
+++ b/src/main/resources/template/excel/export/memberOrderAll.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\okdeer\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,9 +32,10 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">jx:area(lastCell="F4")
+          <t xml:space="preserve">jx:area(lastCell="F3")
 </t>
         </r>
       </text>
@@ -45,6 +46,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>jx:each(items="reportList" var="obj" lastCell="F3")</t>
@@ -56,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>会员手机号</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -104,6 +106,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -129,6 +132,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">} </t>
@@ -154,6 +158,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -179,6 +184,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -194,6 +200,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -209,17 +216,11 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>总计：</t>
-  </si>
-  <si>
-    <t>$[SUM(F3)]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -227,10 +228,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="0.0000_);\(0.0000\)"/>
-    <numFmt numFmtId="178" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -245,6 +245,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -252,22 +253,26 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -338,7 +343,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -371,9 +376,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -382,74 +384,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -469,7 +403,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -748,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -813,18 +747,6 @@
       </c>
       <c r="F3" s="6" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/template/excel/export/memberOrderAll.xlsx
+++ b/src/main/resources/template/excel/export/memberOrderAll.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace_jxc\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,7 +35,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">jx:area(lastCell="F3")
+          <t xml:space="preserve">jx:area(lastCell="G3")
 </t>
         </r>
       </text>
@@ -49,7 +49,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="reportList" var="obj" lastCell="F3")</t>
+          <t>jx:each(items="reportList" var="obj" lastCell="G3")</t>
         </r>
       </text>
     </comment>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>会员手机号</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -221,6 +221,14 @@
       </rPr>
       <t>}</t>
     </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>小票号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.ticketNo}</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -363,15 +371,13 @@
     <xf numFmtId="177" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -682,24 +688,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.875" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="24.625" customWidth="1"/>
     <col min="3" max="3" width="9.5" customWidth="1"/>
-    <col min="4" max="4" width="14.625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="12.875" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="7" customWidth="1"/>
-    <col min="10" max="10" width="18.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.625" style="8" customWidth="1"/>
+    <col min="5" max="6" width="12.875" customWidth="1"/>
+    <col min="7" max="7" width="24.625" customWidth="1"/>
+    <col min="11" max="11" width="18.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>6</v>
       </c>
@@ -708,8 +714,9 @@
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
     </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -728,8 +735,11 @@
       <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="G2" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -739,7 +749,7 @@
       <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="5" t="s">
@@ -747,11 +757,14 @@
       </c>
       <c r="F3" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/template/excel/export/memberOrderAll.xlsx
+++ b/src/main/resources/template/excel/export/memberOrderAll.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace_jxc\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -238,7 +238,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="177" formatCode="0.0000_);\(0.0000\)"/>
+    <numFmt numFmtId="178" formatCode="0.0000_ "/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -368,9 +368,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -383,6 +380,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -691,7 +691,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -699,22 +699,22 @@
     <col min="1" max="1" width="15.875" customWidth="1"/>
     <col min="2" max="2" width="24.625" customWidth="1"/>
     <col min="3" max="3" width="9.5" customWidth="1"/>
-    <col min="4" max="4" width="14.625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="14.625" style="7" customWidth="1"/>
     <col min="5" max="6" width="12.875" customWidth="1"/>
     <col min="7" max="7" width="24.625" customWidth="1"/>
     <col min="11" max="11" width="18.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
@@ -749,16 +749,16 @@
       <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>14</v>
       </c>
     </row>

--- a/src/main/resources/template/excel/export/memberOrderAll.xlsx
+++ b/src/main/resources/template/excel/export/memberOrderAll.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace_jxc\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -84,10 +84,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>会员消费汇总</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>${obj.</t>
     </r>
@@ -229,6 +225,10 @@
   </si>
   <si>
     <t>${obj.ticketNo}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员消费报表——订单统计</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -238,9 +238,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="178" formatCode="0.0000_ "/>
+    <numFmt numFmtId="177" formatCode="0.0000_ "/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,14 +287,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
@@ -351,7 +343,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -367,22 +359,19 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -390,6 +379,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -409,7 +466,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -691,7 +748,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -706,8 +763,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
-        <v>6</v>
+      <c r="A1" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -736,30 +793,30 @@
         <v>5</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>10</v>
-      </c>
       <c r="G3" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
